--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577582.2578953684</v>
+        <v>-580094.6662767332</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>69.11474563697955</v>
       </c>
       <c r="X2" t="n">
-        <v>160.2962291795008</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>63.16791763965137</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>125.3206812349197</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>121.2940146528287</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.98090095916447</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>377.6405177304891</v>
       </c>
       <c r="H5" t="n">
-        <v>245.8056267012315</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.24654969937843</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>181.5552049554547</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>88.919330187466</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>242.7840558312787</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.1936478648171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.36202120923178</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>149.8654426572605</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187877</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>247.2924896597632</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.92158678358384</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.144199649717</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.44192933415017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417143</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0177171766861</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2892803597716</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>206.6447768750164</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>60.66149661128517</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>26.05480806223633</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992726</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>134.0367616438415</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>126.9263824507425</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670977</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.962173606588</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261725</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545319</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652571</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808186</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352484</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972043</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969973</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.32083113111</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C2" t="n">
-        <v>764.3583141906979</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D2" t="n">
-        <v>406.0926155839475</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X2" t="n">
-        <v>1910.060003171043</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.920671195231</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>575.2377743386119</v>
+        <v>484.5540527820584</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>315.6178698541515</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>315.6178698541515</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>189.0313231522124</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>189.0313231522124</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>189.0313231522124</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4519,19 +4519,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438286</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438286</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2377743386119</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y4" t="n">
-        <v>575.2377743386119</v>
+        <v>666.2025176122982</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.606831754061</v>
+        <v>900.9499883969577</v>
       </c>
       <c r="E5" t="n">
-        <v>736.8185791558162</v>
+        <v>900.9499883969577</v>
       </c>
       <c r="F5" t="n">
-        <v>325.8326743662087</v>
+        <v>489.9640836073501</v>
       </c>
       <c r="G5" t="n">
-        <v>314.8006282516092</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4689,7 +4689,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>234.2149530574645</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>234.2149530574645</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X7" t="n">
-        <v>234.2149530574645</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.2149530574645</v>
+        <v>445.4099384687679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3235.788316369305</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3029.810568753528</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3029.810568753528</v>
+        <v>3080.369401577575</v>
       </c>
       <c r="V8" t="n">
-        <v>2698.747681409957</v>
+        <v>2749.306514234005</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.979026139843</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.979026139843</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.5540527820583</v>
+        <v>313.9641308033391</v>
       </c>
       <c r="C10" t="n">
-        <v>315.6178698541514</v>
+        <v>313.9641308033391</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8474913910034</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8474913910034</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8474913910034</v>
       </c>
       <c r="G10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W10" t="n">
-        <v>666.202517612298</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X10" t="n">
-        <v>666.202517612298</v>
+        <v>313.9641308033391</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.202517612298</v>
+        <v>313.9641308033391</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5030,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811715</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2223348314336</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>801.6918836311962</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7557007032892</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>482.6390612909534</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>482.6390612909534</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>482.6390612909534</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>315.4429620058332</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038385</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235169</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.50678425811</v>
+        <v>2044.506784258103</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602308</v>
+        <v>1755.431557602301</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396421</v>
+        <v>1500.747069396414</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359461</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614432</v>
+        <v>983.3403484614361</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511905</v>
+        <v>983.3403484614361</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192724</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111728</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>546.5917956728304</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>398.6787020904371</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>398.6787020904371</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>231.482602805317</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154061</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5966,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>847.6442739835337</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>847.6442739835337</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1257.282289711791</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2385.688844578962</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2202.834010233867</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1983.232545256808</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1694.157318601005</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327666</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>594.8179559048598</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>444.7013164925241</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925241</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925241</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074042</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
@@ -6646,25 +6646,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704554</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>945.4026036630062</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1092.345997432836</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>923.4098145049296</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>773.293175092594</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>625.380081510201</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>478.4901340122907</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>311.2940347271708</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1494.787041406606</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1273.994462263076</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277359</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.30924124904</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319343</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656837</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150044</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400518</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7834,19 +7834,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>280.1262230804335</v>
       </c>
       <c r="X2" t="n">
-        <v>209.4348714989682</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>21.11328141164944</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>169.7287544298727</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011865</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.88156453658485</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.84421273177668</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462336</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>38.89198472948098</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.150513196506978</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.1427240179446</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>38.59775584152629</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.005432486452406</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>45.49286644881167</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.713750098836513</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>120.3791545843328</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>39.70888054695121</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.257951202382316</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E37" t="n">
-        <v>19.50758019582666</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392193933</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-2.614797267597169e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1164822.559718554</v>
+        <v>1164822.559718555</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1164822.559718555</v>
+        <v>1164822.559718554</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1164822.559718554</v>
+        <v>1164822.559718555</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1164822.559718554</v>
+        <v>1164822.559718555</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
@@ -26323,7 +26323,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.6448992518</v>
       </c>
       <c r="G2" t="n">
         <v>262322.6448992519</v>
@@ -26338,16 +26338,16 @@
         <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058924</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27249.14345670376</v>
+        <v>27249.1434567039</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405259</v>
@@ -26427,37 +26427,37 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.6400068795</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.6400068795</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.6400068795</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687963</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687962</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687962</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997318</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234868.185969791</v>
+        <v>-1235158.793134637</v>
       </c>
       <c r="C6" t="n">
-        <v>65307.89054044631</v>
+        <v>65307.89054044621</v>
       </c>
       <c r="D6" t="n">
         <v>65307.89054044627</v>
       </c>
       <c r="E6" t="n">
-        <v>-179648.9867388903</v>
+        <v>-179683.724664326</v>
       </c>
       <c r="F6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="G6" t="n">
-        <v>145763.4750684651</v>
+        <v>145728.7371430294</v>
       </c>
       <c r="H6" t="n">
-        <v>145763.4750684651</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="I6" t="n">
-        <v>145763.4750684651</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="J6" t="n">
-        <v>-71767.72732881234</v>
+        <v>-71802.4652542478</v>
       </c>
       <c r="K6" t="n">
-        <v>145763.4750684651</v>
+        <v>145728.7371430294</v>
       </c>
       <c r="L6" t="n">
-        <v>145763.4750684651</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="M6" t="n">
-        <v>60708.44713295328</v>
+        <v>60673.7092075176</v>
       </c>
       <c r="N6" t="n">
         <v>120819.2420883721</v>
@@ -26561,7 +26561,7 @@
         <v>140246.9600820038</v>
       </c>
       <c r="P6" t="n">
-        <v>140246.9600820038</v>
+        <v>140246.9600820037</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>104.0789034589765</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>23.46100026149212</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27591,16 +27591,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>33.28120792296437</v>
       </c>
       <c r="H5" t="n">
-        <v>48.80213768608891</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.5854304825589</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>104.6566332501581</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.26843160070983</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>8.211116127623285</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>47.42182515339528</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.66378704979644</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28500,10 +28500,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-9.690283569177977e-12</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-2.658323114636161e-12</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.921028390095926e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.005632358994952e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250657</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507067</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096391</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
@@ -36054,13 +36054,13 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060428</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318498</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,16 +36999,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,16 +37236,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,16 +37473,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,10 +37947,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
